--- a/data/trans_bre/P40_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P40_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -641,47 +673,67 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>3,3</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>-0,85</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>17,18%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>17,19%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>17,47%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-5,24%</t>
+          <t>21,13%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>20,84%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>34,66%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-5,21%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-1,45%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 6,24</t>
+          <t>-1,73; 6,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 6,17</t>
+          <t>-2,45; 6,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 4,94</t>
+          <t>-1,8; 4,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 4,95</t>
+          <t>-1,18; 4,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 2,76</t>
+          <t>-0,33; 6,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 51,51</t>
+          <t>-4,66; 2,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-14,97; 56,9</t>
+          <t>-4,54; 4,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-15,75; 66,12</t>
+          <t>-9,53; 53,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-17,31; 71,33</t>
+          <t>-15,39; 58,44</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-24,54; 19,79</t>
+          <t>-16,02; 64,97</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-11,35; 68,89</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,92; 90,77</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-25,4; 21,13</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-21,43; 24,91</t>
         </is>
       </c>
     </row>
@@ -761,47 +833,67 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>5,64</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,58</t>
+          <t>4,69</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,55</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>20,28%</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>40,4%</t>
+          <t>20,31%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>27,68%</t>
+          <t>35,64%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>41,49%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>24,14%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>54,05%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1,87%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>13,21%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 8,89</t>
+          <t>-1,3; 8,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 8,58</t>
+          <t>-0,33; 10,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,07; 8,77</t>
+          <t>-0,55; 8,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 7,93</t>
+          <t>-2,08; 8,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 6,54</t>
+          <t>1,01; 9,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 60,19</t>
+          <t>-6,32; 6,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-18,4; 61,92</t>
+          <t>-4,63; 9,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 97,49</t>
+          <t>-6,83; 57,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 78,06</t>
+          <t>-2,07; 78,07</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-35,65; 59,43</t>
+          <t>-4,07; 97,81</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-14,67; 80,1</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5,43; 126,84</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-34,13; 54,72</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-26,5; 82,91</t>
         </is>
       </c>
     </row>
@@ -881,45 +993,65 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>5,72</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,96</t>
+          <t>12,5</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>7,11</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>25,06%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>51,92%</t>
+          <t>25,04%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>429,17%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>58,25%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>398,51%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>119,43%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -934,50 +1066,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 15,27</t>
+          <t>-7,31; 15,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 12,38</t>
+          <t>-15,19; 12,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 12,21</t>
+          <t>-1,29; 13,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,17; 18,54</t>
+          <t>7,27; 18,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>0,43; 14,82</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-36,63; 112,3</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-43,63; 100,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-22,02; 175,75</t>
+          <t>-27,24; 122,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>128,82; 1369,41</t>
+          <t>-48,77; 97,97</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-11,03; 204,76</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>105,27; 1146,03</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-8,82; 467,11</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1001,47 +1153,67 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30,58%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>37,88%</t>
+          <t>23,4%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-3,63%</t>
+          <t>33,31%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>35,92%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>49,39%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-3,6%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>1,75%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,91 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 5,97</t>
+          <t>-0,44; 6,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 6,18</t>
+          <t>-0,06; 6,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 5,53</t>
+          <t>0,92; 5,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,1; 6,43</t>
+          <t>0,53; 5,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 2,81</t>
+          <t>1,55; 6,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 40,02</t>
+          <t>-4,07; 2,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 44,49</t>
+          <t>-3,49; 3,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,21; 62,6</t>
+          <t>-3,7; 40,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,66; 82,38</t>
+          <t>-0,42; 49,04</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-23,05; 20,13</t>
+          <t>7,54; 67,79</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4,88; 71,71</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>14,38; 90,6</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-22,68; 19,73</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-16,89; 24,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P40_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P40_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -666,479 +675,307 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,43</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,25</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,97</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,81</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>3,3</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-0,85</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-0,28</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>17,19%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>17,47%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>21,13%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>20,84%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>34,66%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>-5,21%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>-1,45%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.430071226186489</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.552358436126641</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.97195169095904</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.589033155061388</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>3.334208203916885</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.8485863680210842</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.1413272470131094</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.17190382495498</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.1147728890360234</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.2082278559213552</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.1777512446130226</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.351706735725248</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>-0.05210503437406413</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>-0.007391504670985072</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,73; 6,32</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,45; 6,14</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,8; 4,93</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,18; 4,77</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-0,33; 6,95</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-4,66; 2,99</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-4,54; 4,14</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-9,53; 53,2</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-15,39; 58,44</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-16,02; 64,97</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-11,35; 68,89</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-2,92; 90,77</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>-25,4; 21,13</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>-21,43; 24,91</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.731848563192262</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.264221211391296</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.858934914887646</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-1.613496246643784</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.361526647209245</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-4.662230450301143</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-4.253948866444532</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.09532926985328964</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.2068242036485012</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1703229338376716</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.1513356771755817</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.03324423990886101</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>-0.2540486331742694</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>-0.2023496143653438</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6.32152744528166</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.775983814620355</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.990321172435543</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>4.616005363905044</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>6.828647214469951</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>2.985255284549351</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>4.268886209805007</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.532022012197</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.5076922384554601</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.6324714779526895</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.6537835058075655</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.923776382256245</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>0.2113352586499968</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>0.2691515961457375</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,65</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,64</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,69</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,17</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>4,98</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,28</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>1,96</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>20,31%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>35,64%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>41,49%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>24,14%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>54,05%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>1,87%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>13,21%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,3; 8,63</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,33; 10,58</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,55; 8,59</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,08; 8,25</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>1,01; 9,37</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-6,32; 6,51</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-4,63; 9,51</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-6,83; 57,19</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-2,07; 78,07</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-4,07; 97,81</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-14,67; 80,1</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>5,43; 126,84</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>-34,13; 54,72</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>-26,5; 82,91</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.652529157863754</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>5.009753690261243</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>4.086965851294414</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.456314306116473</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>4.949537201549825</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.2791659669858171</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>1.741322760232758</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.2030931929852327</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.3001222958612016</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.3489898880700941</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.2673715809561936</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.5269705444521692</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>0.01868919303623797</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>0.1165444864257334</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>5,1</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,34</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,72</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>12,5</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>7,11</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>25,04%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>12,05%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>58,25%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>398,51%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>119,43%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.295550960863891</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.339444227847938</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.185085033046972</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-1.891072765551868</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.8032760703258514</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-6.320259661796483</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-4.939930179799407</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.06830717677355544</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.06051675409128303</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.0700165698594962</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.1236152167476687</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.04401473912582433</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>-0.3412672041787631</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>-0.2820311560265578</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,31; 15,66</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-15,19; 12,43</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,29; 13,07</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>7,27; 18,55</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0,43; 14,82</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-27,24; 122,08</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-48,77; 97,97</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-11,03; 204,76</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>105,27; 1146,03</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-8,82; 467,11</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>8.632246357655365</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>10.04613080785906</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>8.086587367807443</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>8.588350021913802</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>9.414584323335927</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>6.509753902849382</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>9.035654436182254</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.5718823850117247</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.7289854220769564</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.8834070111560514</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.8394303418716669</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>1.253186847856516</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>0.5471627968768283</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>0.7529233185329008</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1146,157 +983,281 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,12</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,48</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,39</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>3,52</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>4,42</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-0,57</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,32</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>18,97%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>23,4%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>33,31%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>35,92%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>49,39%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>-3,6%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>1,75%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>5.097263172669861</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>3.042601048827678</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>5.042336704653902</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>12.54136240736315</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>7.382956475017533</v>
+      </c>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="6" t="n">
+        <v>0.2504113675905323</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.1664544936081552</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.4845160743416943</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>4.011289960264179</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>1.261656857216786</v>
+      </c>
+      <c r="O10" s="6" t="inlineStr"/>
+      <c r="P10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,44; 6,09</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,06; 6,35</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,92; 5,9</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,53; 5,94</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>1,55; 6,94</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-4,07; 2,82</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-3,49; 3,81</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-3,7; 40,47</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-0,42; 49,04</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>7,54; 67,79</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>4,88; 71,71</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>14,38; 90,6</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>-22,68; 19,73</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>-16,89; 24,23</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.313998048000701</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-13.62284636207543</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.195575648581761</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>7.260402097924263</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.5515081103773299</v>
+      </c>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.2723735359345582</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.4528687065522851</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.1658638727959272</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>1.063763713333985</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>-0.03551371199363629</v>
+      </c>
+      <c r="O11" s="6" t="inlineStr"/>
+      <c r="P11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>15.66472240078544</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>12.72818785519032</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>12.56059529281607</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>18.52213472102557</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>15.41329199013984</v>
+      </c>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>1.220759429439215</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.014945105676378</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>1.934027286187322</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>11.8237945700022</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>5.125872700593581</v>
+      </c>
+      <c r="O12" s="6" t="inlineStr"/>
+      <c r="P12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>3.119285387828519</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.980344750872546</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.075239133604328</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3.529941601203339</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>4.455559841031739</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.574297393018261</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.3696594878332626</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1896939733834637</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.1939073635427996</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.2933931751611298</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.3591349126757418</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.495311741364191</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>-0.03597487480185602</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>0.02041998723528487</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.4362942391094494</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.6787511298818428</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.4150130116881144</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.5092023760452785</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>1.631476737243636</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-4.069295023290454</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-3.341848701843641</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.03695073464289957</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.04418772242827848</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.03316387564367727</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.04302600954816738</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.1620128215916018</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>-0.2267809136177349</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>-0.1649189193590839</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.08993148663279</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.005695188657762</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.561660022531942</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.0074032270588</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>7.014121823687004</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>2.822973306244085</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>3.964912662828202</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.4046515570839044</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.4366644171311126</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.6253557118946479</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.7141311793987981</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.9082222920693558</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>0.1972817751901979</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>0.2429122300246066</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1305,12 +1266,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
